--- a/Code/Results/Cases/Case_1_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.0233146227606</v>
+        <v>1.066677059972287</v>
       </c>
       <c r="D2">
-        <v>1.04098288978932</v>
+        <v>1.049718084173496</v>
       </c>
       <c r="E2">
-        <v>1.034241619915519</v>
+        <v>1.070899531701963</v>
       </c>
       <c r="F2">
-        <v>1.041136485637366</v>
+        <v>1.079845335107357</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053523072333292</v>
+        <v>1.048797781645715</v>
       </c>
       <c r="J2">
-        <v>1.044819677250715</v>
+        <v>1.071625841969085</v>
       </c>
       <c r="K2">
-        <v>1.051899334258387</v>
+        <v>1.052474363342899</v>
       </c>
       <c r="L2">
-        <v>1.045243668079654</v>
+        <v>1.073598139330804</v>
       </c>
       <c r="M2">
-        <v>1.052050995791279</v>
+        <v>1.082520319984118</v>
       </c>
       <c r="N2">
-        <v>1.046303441034903</v>
+        <v>1.073147673581883</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.030695822682622</v>
+        <v>1.068159856152864</v>
       </c>
       <c r="D3">
-        <v>1.044668658173441</v>
+        <v>1.050443920519322</v>
       </c>
       <c r="E3">
-        <v>1.040610042469593</v>
+        <v>1.072224556851048</v>
       </c>
       <c r="F3">
-        <v>1.047889904717197</v>
+        <v>1.081260699795537</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055783094075418</v>
+        <v>1.049175282993491</v>
       </c>
       <c r="J3">
-        <v>1.050383282816844</v>
+        <v>1.072762203358879</v>
       </c>
       <c r="K3">
-        <v>1.054760199266265</v>
+        <v>1.053012725120281</v>
       </c>
       <c r="L3">
-        <v>1.050748396588254</v>
+        <v>1.074738357812207</v>
       </c>
       <c r="M3">
-        <v>1.05794460962015</v>
+        <v>1.083752380917148</v>
       </c>
       <c r="N3">
-        <v>1.051874947559091</v>
+        <v>1.074285648735193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03533487388972</v>
+        <v>1.069118236624402</v>
       </c>
       <c r="D4">
-        <v>1.046992923392026</v>
+        <v>1.050913074677537</v>
       </c>
       <c r="E4">
-        <v>1.044618417931604</v>
+        <v>1.073081168872642</v>
       </c>
       <c r="F4">
-        <v>1.052141836602936</v>
+        <v>1.082175901594509</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057193921427984</v>
+        <v>1.049417907112838</v>
       </c>
       <c r="J4">
-        <v>1.053875951631351</v>
+        <v>1.073495973158782</v>
       </c>
       <c r="K4">
-        <v>1.056555431863499</v>
+        <v>1.053359901665485</v>
       </c>
       <c r="L4">
-        <v>1.054206586154195</v>
+        <v>1.075474839556287</v>
       </c>
       <c r="M4">
-        <v>1.061649191235284</v>
+        <v>1.084548439828315</v>
       </c>
       <c r="N4">
-        <v>1.055372576363929</v>
+        <v>1.075020460572377</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.03725409724521</v>
+        <v>1.069520885688234</v>
       </c>
       <c r="D5">
-        <v>1.047956169400138</v>
+        <v>1.051110185739133</v>
       </c>
       <c r="E5">
-        <v>1.046278042510769</v>
+        <v>1.073441109568662</v>
       </c>
       <c r="F5">
-        <v>1.05390260299344</v>
+        <v>1.082560505838401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05777521812407</v>
+        <v>1.049519514024407</v>
       </c>
       <c r="J5">
-        <v>1.055319874667164</v>
+        <v>1.073804087836347</v>
       </c>
       <c r="K5">
-        <v>1.057297336992145</v>
+        <v>1.053505573461551</v>
       </c>
       <c r="L5">
-        <v>1.055636840676737</v>
+        <v>1.075784145908344</v>
       </c>
       <c r="M5">
-        <v>1.063181848367036</v>
+        <v>1.084882828325896</v>
       </c>
       <c r="N5">
-        <v>1.056818549936073</v>
+        <v>1.075329012808125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.037574572642401</v>
+        <v>1.069588477521726</v>
       </c>
       <c r="D6">
-        <v>1.048117106999511</v>
+        <v>1.051143274462792</v>
       </c>
       <c r="E6">
-        <v>1.046555244788808</v>
+        <v>1.073501534838695</v>
       </c>
       <c r="F6">
-        <v>1.054196716439485</v>
+        <v>1.082625074135989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057872142133404</v>
+        <v>1.049536551310471</v>
       </c>
       <c r="J6">
-        <v>1.055560921226137</v>
+        <v>1.07385580054387</v>
       </c>
       <c r="K6">
-        <v>1.057421170969887</v>
+        <v>1.053530015939412</v>
       </c>
       <c r="L6">
-        <v>1.055875639616537</v>
+        <v>1.075836061722517</v>
       </c>
       <c r="M6">
-        <v>1.063437773985794</v>
+        <v>1.084938957655181</v>
       </c>
       <c r="N6">
-        <v>1.057059938808808</v>
+        <v>1.075380798953624</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03536063833602</v>
+        <v>1.069123617831426</v>
       </c>
       <c r="D7">
-        <v>1.047005848027566</v>
+        <v>1.050915708960947</v>
       </c>
       <c r="E7">
-        <v>1.044640692308656</v>
+        <v>1.073085979115194</v>
       </c>
       <c r="F7">
-        <v>1.05216546724675</v>
+        <v>1.082181041264873</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057201734500349</v>
+        <v>1.049419266328946</v>
       </c>
       <c r="J7">
-        <v>1.05389533960616</v>
+        <v>1.073500091619455</v>
       </c>
       <c r="K7">
-        <v>1.056565394837368</v>
+        <v>1.053361849242751</v>
       </c>
       <c r="L7">
-        <v>1.054225788291572</v>
+        <v>1.075478973737739</v>
       </c>
       <c r="M7">
-        <v>1.061669766225975</v>
+        <v>1.084552909017237</v>
       </c>
       <c r="N7">
-        <v>1.055391991871885</v>
+        <v>1.075024584881736</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025838637451201</v>
+        <v>1.06717840694397</v>
       </c>
       <c r="D8">
-        <v>1.042241482808515</v>
+        <v>1.049963490192141</v>
       </c>
       <c r="E8">
-        <v>1.036418025075179</v>
+        <v>1.071347492055831</v>
       </c>
       <c r="F8">
-        <v>1.043444205467145</v>
+        <v>1.080323798562789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054297864071916</v>
+        <v>1.048925701359133</v>
       </c>
       <c r="J8">
-        <v>1.046722973023349</v>
+        <v>1.072010200619582</v>
       </c>
       <c r="K8">
-        <v>1.052878123911257</v>
+        <v>1.052656550154495</v>
       </c>
       <c r="L8">
-        <v>1.047126291878864</v>
+        <v>1.073983756644204</v>
       </c>
       <c r="M8">
-        <v>1.054066177471072</v>
+        <v>1.082936945187658</v>
       </c>
       <c r="N8">
-        <v>1.048209439705846</v>
+        <v>1.07353257806575</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.007921252494832</v>
+        <v>1.063742081039119</v>
       </c>
       <c r="D9">
-        <v>1.033349315148965</v>
+        <v>1.048281609433723</v>
       </c>
       <c r="E9">
-        <v>1.020997436315614</v>
+        <v>1.068277957970566</v>
       </c>
       <c r="F9">
-        <v>1.027098358984978</v>
+        <v>1.077046014570188</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048759860246855</v>
+        <v>1.048043317572139</v>
       </c>
       <c r="J9">
-        <v>1.033197358709546</v>
+        <v>1.069372881415453</v>
       </c>
       <c r="K9">
-        <v>1.045923540824472</v>
+        <v>1.051404636734577</v>
       </c>
       <c r="L9">
-        <v>1.033758788963183</v>
+        <v>1.071338715378013</v>
       </c>
       <c r="M9">
-        <v>1.039766567897883</v>
+        <v>1.080080262680696</v>
       </c>
       <c r="N9">
-        <v>1.034664617468307</v>
+        <v>1.070891513565848</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9950718880397884</v>
+        <v>1.061445004874942</v>
       </c>
       <c r="D10">
-        <v>1.027037295755374</v>
+        <v>1.047157641360188</v>
       </c>
       <c r="E10">
-        <v>1.009981042007724</v>
+        <v>1.066227196693296</v>
       </c>
       <c r="F10">
-        <v>1.015427376924676</v>
+        <v>1.074857081327321</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04474389120806</v>
+        <v>1.047446458993285</v>
       </c>
       <c r="J10">
-        <v>1.023482404971616</v>
+        <v>1.067606348065932</v>
       </c>
       <c r="K10">
-        <v>1.040934960077064</v>
+        <v>1.050563842998931</v>
       </c>
       <c r="L10">
-        <v>1.024172394146504</v>
+        <v>1.069568163056478</v>
       </c>
       <c r="M10">
-        <v>1.029523562215545</v>
+        <v>1.078169360550319</v>
       </c>
       <c r="N10">
-        <v>1.024935867381748</v>
+        <v>1.069122471536345</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9892570981849648</v>
+        <v>1.060448787423283</v>
       </c>
       <c r="D11">
-        <v>1.024200162011346</v>
+        <v>1.046670293008008</v>
       </c>
       <c r="E11">
-        <v>1.005007627588161</v>
+        <v>1.06533808096182</v>
       </c>
       <c r="F11">
-        <v>1.010159907293356</v>
+        <v>1.073908288100458</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042917455346007</v>
+        <v>1.047185951435095</v>
       </c>
       <c r="J11">
-        <v>1.019083725764198</v>
+        <v>1.066839380500712</v>
       </c>
       <c r="K11">
-        <v>1.038679687434062</v>
+        <v>1.050198285571038</v>
       </c>
       <c r="L11">
-        <v>1.019835721262115</v>
+        <v>1.068799725437121</v>
       </c>
       <c r="M11">
-        <v>1.024892732820887</v>
+        <v>1.077340323022421</v>
       </c>
       <c r="N11">
-        <v>1.020530941545321</v>
+        <v>1.068354414789211</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9870559470149979</v>
+        <v>1.060078504504884</v>
       </c>
       <c r="D12">
-        <v>1.023129442791467</v>
+        <v>1.04648916925521</v>
       </c>
       <c r="E12">
-        <v>1.003126935471335</v>
+        <v>1.065007649145361</v>
       </c>
       <c r="F12">
-        <v>1.008168232640361</v>
+        <v>1.073555711847123</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042224847989593</v>
+        <v>1.047088875405748</v>
       </c>
       <c r="J12">
-        <v>1.017418407881035</v>
+        <v>1.066554181326725</v>
       </c>
       <c r="K12">
-        <v>1.037826541234363</v>
+        <v>1.050062276091064</v>
       </c>
       <c r="L12">
-        <v>1.018194472533384</v>
+        <v>1.068514021021234</v>
       </c>
       <c r="M12">
-        <v>1.023140597691805</v>
+        <v>1.077032134717863</v>
       </c>
       <c r="N12">
-        <v>1.018863258719748</v>
+        <v>1.068068810599684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9875300319970759</v>
+        <v>1.060157942587632</v>
       </c>
       <c r="D13">
-        <v>1.023359901511168</v>
+        <v>1.046528025501014</v>
       </c>
       <c r="E13">
-        <v>1.003531908274141</v>
+        <v>1.065078535891423</v>
       </c>
       <c r="F13">
-        <v>1.008597093936071</v>
+        <v>1.073631347640571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04237407482992</v>
+        <v>1.047109712688647</v>
       </c>
       <c r="J13">
-        <v>1.017777092939499</v>
+        <v>1.066615371786378</v>
       </c>
       <c r="K13">
-        <v>1.038010262381082</v>
+        <v>1.050091460801579</v>
       </c>
       <c r="L13">
-        <v>1.018547946243422</v>
+        <v>1.068575318007258</v>
       </c>
       <c r="M13">
-        <v>1.023517932912015</v>
+        <v>1.077098253419983</v>
       </c>
       <c r="N13">
-        <v>1.019222453152137</v>
+        <v>1.068130087956808</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9890760147957232</v>
+        <v>1.060418184732199</v>
       </c>
       <c r="D14">
-        <v>1.02411200822697</v>
+        <v>1.046655323327549</v>
       </c>
       <c r="E14">
-        <v>1.004852866735481</v>
+        <v>1.065310770962327</v>
       </c>
       <c r="F14">
-        <v>1.009996009453171</v>
+        <v>1.073879147179274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042860500130068</v>
+        <v>1.047177933474128</v>
       </c>
       <c r="J14">
-        <v>1.018946727921473</v>
+        <v>1.06681581227198</v>
       </c>
       <c r="K14">
-        <v>1.038609488103407</v>
+        <v>1.050187047587758</v>
       </c>
       <c r="L14">
-        <v>1.019700691289742</v>
+        <v>1.06877611461138</v>
       </c>
       <c r="M14">
-        <v>1.024748570968906</v>
+        <v>1.077314853150611</v>
       </c>
       <c r="N14">
-        <v>1.020393749149945</v>
+        <v>1.06833081309089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9900229609017713</v>
+        <v>1.060578496020105</v>
       </c>
       <c r="D15">
-        <v>1.024573128796862</v>
+        <v>1.046733742313478</v>
       </c>
       <c r="E15">
-        <v>1.005662244237733</v>
+        <v>1.065453835331982</v>
       </c>
       <c r="F15">
-        <v>1.010853180789464</v>
+        <v>1.074031804293747</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043158289376266</v>
+        <v>1.047219925163137</v>
       </c>
       <c r="J15">
-        <v>1.019663127405225</v>
+        <v>1.066939268586792</v>
       </c>
       <c r="K15">
-        <v>1.038976608813607</v>
+        <v>1.050245911875744</v>
       </c>
       <c r="L15">
-        <v>1.020406824515671</v>
+        <v>1.068899795755457</v>
       </c>
       <c r="M15">
-        <v>1.025502476858359</v>
+        <v>1.077448274507852</v>
       </c>
       <c r="N15">
-        <v>1.021111166003136</v>
+        <v>1.06845444472783</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9954522144944382</v>
+        <v>1.061511086840823</v>
       </c>
       <c r="D16">
-        <v>1.027223292075526</v>
+        <v>1.047189970990926</v>
       </c>
       <c r="E16">
-        <v>1.010306597199095</v>
+        <v>1.066286180214372</v>
       </c>
       <c r="F16">
-        <v>1.015772210536622</v>
+        <v>1.074920028615073</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044863176254135</v>
+        <v>1.047463704381135</v>
       </c>
       <c r="J16">
-        <v>1.023770070193882</v>
+        <v>1.067657205561199</v>
       </c>
       <c r="K16">
-        <v>1.041082535749836</v>
+        <v>1.050588072351615</v>
       </c>
       <c r="L16">
-        <v>1.024456084747301</v>
+        <v>1.069619123824751</v>
       </c>
       <c r="M16">
-        <v>1.029826555705539</v>
+        <v>1.078224346743577</v>
       </c>
       <c r="N16">
-        <v>1.025223941121626</v>
+        <v>1.069173401255089</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.998788274094416</v>
+        <v>1.062095651064885</v>
       </c>
       <c r="D17">
-        <v>1.028856986927299</v>
+        <v>1.047475972833434</v>
       </c>
       <c r="E17">
-        <v>1.013163587751498</v>
+        <v>1.066807983407327</v>
       </c>
       <c r="F17">
-        <v>1.018798548226373</v>
+        <v>1.075476923900929</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045908485495229</v>
+        <v>1.047616066788058</v>
       </c>
       <c r="J17">
-        <v>1.026293096912057</v>
+        <v>1.06810699638742</v>
       </c>
       <c r="K17">
-        <v>1.042377284365001</v>
+        <v>1.050802301029344</v>
       </c>
       <c r="L17">
-        <v>1.0269446821878</v>
+        <v>1.070069859732073</v>
       </c>
       <c r="M17">
-        <v>1.032484808124133</v>
+        <v>1.07871072273638</v>
       </c>
       <c r="N17">
-        <v>1.027750550827136</v>
+        <v>1.069623830835875</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000710194922065</v>
+        <v>1.062436466695764</v>
       </c>
       <c r="D18">
-        <v>1.029799952787078</v>
+        <v>1.047642729012844</v>
       </c>
       <c r="E18">
-        <v>1.014810619476233</v>
+        <v>1.067112234477951</v>
       </c>
       <c r="F18">
-        <v>1.020543345144282</v>
+        <v>1.075801658275116</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046509831642048</v>
+        <v>1.04770473819646</v>
       </c>
       <c r="J18">
-        <v>1.02774639877121</v>
+        <v>1.068369154653997</v>
       </c>
       <c r="K18">
-        <v>1.043123389222927</v>
+        <v>1.050927113512715</v>
       </c>
       <c r="L18">
-        <v>1.028378507370636</v>
+        <v>1.070332595303452</v>
       </c>
       <c r="M18">
-        <v>1.03401665150373</v>
+        <v>1.078994263229217</v>
       </c>
       <c r="N18">
-        <v>1.029205916541625</v>
+        <v>1.069886361397261</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.001361559908414</v>
+        <v>1.062552650675948</v>
       </c>
       <c r="D19">
-        <v>1.03011982945398</v>
+        <v>1.047699577768235</v>
       </c>
       <c r="E19">
-        <v>1.015369003398537</v>
+        <v>1.06721595810852</v>
       </c>
       <c r="F19">
-        <v>1.02113489740948</v>
+        <v>1.075912368684088</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046713485870028</v>
+        <v>1.047734939156062</v>
       </c>
       <c r="J19">
-        <v>1.028238900602686</v>
+        <v>1.068458510587116</v>
       </c>
       <c r="K19">
-        <v>1.04337628046754</v>
+        <v>1.050969647055017</v>
       </c>
       <c r="L19">
-        <v>1.028864468450631</v>
+        <v>1.070422152495656</v>
       </c>
       <c r="M19">
-        <v>1.034535879166365</v>
+        <v>1.079090917197232</v>
       </c>
       <c r="N19">
-        <v>1.029699117782192</v>
+        <v>1.069975844226054</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9984328477564406</v>
+        <v>1.062032948509377</v>
       </c>
       <c r="D20">
-        <v>1.028682743758202</v>
+        <v>1.047445294156962</v>
       </c>
       <c r="E20">
-        <v>1.012859085778762</v>
+        <v>1.066752010067529</v>
       </c>
       <c r="F20">
-        <v>1.018475982707971</v>
+        <v>1.075417183996031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045797206065445</v>
+        <v>1.047599740341317</v>
       </c>
       <c r="J20">
-        <v>1.026024314446857</v>
+        <v>1.068058758518476</v>
       </c>
       <c r="K20">
-        <v>1.04223931913369</v>
+        <v>1.050779331172068</v>
       </c>
       <c r="L20">
-        <v>1.026679530470447</v>
+        <v>1.070021517768371</v>
       </c>
       <c r="M20">
-        <v>1.032201552118779</v>
+        <v>1.07865855520748</v>
       </c>
       <c r="N20">
-        <v>1.027481386660005</v>
+        <v>1.069575524463624</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9886219320036975</v>
+        <v>1.060341556688742</v>
       </c>
       <c r="D21">
-        <v>1.023891008433462</v>
+        <v>1.046617840085683</v>
       </c>
       <c r="E21">
-        <v>1.004464822231931</v>
+        <v>1.065242388391666</v>
       </c>
       <c r="F21">
-        <v>1.009585058461197</v>
+        <v>1.073806180644298</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042717660689332</v>
+        <v>1.047157852778714</v>
       </c>
       <c r="J21">
-        <v>1.018603190381806</v>
+        <v>1.066756796238897</v>
       </c>
       <c r="K21">
-        <v>1.038433467057683</v>
+        <v>1.050158905890457</v>
       </c>
       <c r="L21">
-        <v>1.019362098039701</v>
+        <v>1.068716992582259</v>
       </c>
       <c r="M21">
-        <v>1.024387086244713</v>
+        <v>1.077251076789906</v>
       </c>
       <c r="N21">
-        <v>1.020049723747567</v>
+        <v>1.068271713248271</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9822124586733533</v>
+        <v>1.059276699392639</v>
       </c>
       <c r="D22">
-        <v>1.020779842626937</v>
+        <v>1.046097002573034</v>
       </c>
       <c r="E22">
-        <v>0.9989924276098125</v>
+        <v>1.064292215882164</v>
       </c>
       <c r="F22">
-        <v>1.003790129680761</v>
+        <v>1.072792395106592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040698725041761</v>
+        <v>1.046878214910738</v>
       </c>
       <c r="J22">
-        <v>1.01375371588005</v>
+        <v>1.065936385519882</v>
       </c>
       <c r="K22">
-        <v>1.035950588534517</v>
+        <v>1.049767516298321</v>
       </c>
       <c r="L22">
-        <v>1.014583871165976</v>
+        <v>1.067895206632431</v>
       </c>
       <c r="M22">
-        <v>1.019286875431662</v>
+        <v>1.076364708111923</v>
       </c>
       <c r="N22">
-        <v>1.015193362435776</v>
+        <v>1.067450137451932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9856344046008761</v>
+        <v>1.059841336855347</v>
       </c>
       <c r="D23">
-        <v>1.022438920696578</v>
+        <v>1.046373164217868</v>
       </c>
       <c r="E23">
-        <v>1.001912927898546</v>
+        <v>1.064796018380807</v>
       </c>
       <c r="F23">
-        <v>1.006882644268537</v>
+        <v>1.073329907911199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041777224253724</v>
+        <v>1.047026628009072</v>
       </c>
       <c r="J23">
-        <v>1.016342868822796</v>
+        <v>1.066371474764488</v>
       </c>
       <c r="K23">
-        <v>1.03727575737983</v>
+        <v>1.049975123427337</v>
       </c>
       <c r="L23">
-        <v>1.01713464903228</v>
+        <v>1.068331002456592</v>
       </c>
       <c r="M23">
-        <v>1.022009295015908</v>
+        <v>1.0768347265284</v>
       </c>
       <c r="N23">
-        <v>1.017786192272681</v>
+        <v>1.067885844573171</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.99859352335549</v>
+        <v>1.062061281561453</v>
       </c>
       <c r="D24">
-        <v>1.028761507373089</v>
+        <v>1.047459156727965</v>
       </c>
       <c r="E24">
-        <v>1.012996736864795</v>
+        <v>1.066777302344193</v>
       </c>
       <c r="F24">
-        <v>1.018621799048499</v>
+        <v>1.075444178175992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045847514223059</v>
+        <v>1.047607118174899</v>
       </c>
       <c r="J24">
-        <v>1.026145822147293</v>
+        <v>1.068080555744425</v>
       </c>
       <c r="K24">
-        <v>1.042301687721062</v>
+        <v>1.050789710705429</v>
       </c>
       <c r="L24">
-        <v>1.02679939572786</v>
+        <v>1.07004336194976</v>
       </c>
       <c r="M24">
-        <v>1.032329600814728</v>
+        <v>1.07868212794565</v>
       </c>
       <c r="N24">
-        <v>1.027603066915313</v>
+        <v>1.069597352644135</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.012701597918903</v>
+        <v>1.064631515655299</v>
       </c>
       <c r="D25">
-        <v>1.035711841838071</v>
+        <v>1.048716889950914</v>
       </c>
       <c r="E25">
-        <v>1.025104962055549</v>
+        <v>1.069072260051892</v>
       </c>
       <c r="F25">
-        <v>1.031451230232615</v>
+        <v>1.077894036244381</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050245399018631</v>
+        <v>1.048272944479337</v>
       </c>
       <c r="J25">
-        <v>1.036808935334826</v>
+        <v>1.070056136670988</v>
       </c>
       <c r="K25">
-        <v>1.047779964668945</v>
+        <v>1.051729370869115</v>
       </c>
       <c r="L25">
-        <v>1.03732566664551</v>
+        <v>1.072023768762897</v>
       </c>
       <c r="M25">
-        <v>1.04358016518683</v>
+        <v>1.080819898071733</v>
       </c>
       <c r="N25">
-        <v>1.038281322946649</v>
+        <v>1.071575739122215</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_203/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_203/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.066677059972287</v>
+        <v>1.023314622760599</v>
       </c>
       <c r="D2">
-        <v>1.049718084173496</v>
+        <v>1.04098288978932</v>
       </c>
       <c r="E2">
-        <v>1.070899531701963</v>
+        <v>1.034241619915518</v>
       </c>
       <c r="F2">
-        <v>1.079845335107357</v>
+        <v>1.041136485637366</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048797781645715</v>
+        <v>1.053523072333292</v>
       </c>
       <c r="J2">
-        <v>1.071625841969085</v>
+        <v>1.044819677250715</v>
       </c>
       <c r="K2">
-        <v>1.052474363342899</v>
+        <v>1.051899334258387</v>
       </c>
       <c r="L2">
-        <v>1.073598139330804</v>
+        <v>1.045243668079654</v>
       </c>
       <c r="M2">
-        <v>1.082520319984118</v>
+        <v>1.052050995791278</v>
       </c>
       <c r="N2">
-        <v>1.073147673581883</v>
+        <v>1.046303441034903</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.068159856152864</v>
+        <v>1.030695822682622</v>
       </c>
       <c r="D3">
-        <v>1.050443920519322</v>
+        <v>1.04466865817344</v>
       </c>
       <c r="E3">
-        <v>1.072224556851048</v>
+        <v>1.040610042469593</v>
       </c>
       <c r="F3">
-        <v>1.081260699795537</v>
+        <v>1.047889904717197</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049175282993491</v>
+        <v>1.055783094075418</v>
       </c>
       <c r="J3">
-        <v>1.072762203358879</v>
+        <v>1.050383282816844</v>
       </c>
       <c r="K3">
-        <v>1.053012725120281</v>
+        <v>1.054760199266265</v>
       </c>
       <c r="L3">
-        <v>1.074738357812207</v>
+        <v>1.050748396588253</v>
       </c>
       <c r="M3">
-        <v>1.083752380917148</v>
+        <v>1.05794460962015</v>
       </c>
       <c r="N3">
-        <v>1.074285648735193</v>
+        <v>1.051874947559091</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.069118236624402</v>
+        <v>1.035334873889719</v>
       </c>
       <c r="D4">
-        <v>1.050913074677537</v>
+        <v>1.046992923392026</v>
       </c>
       <c r="E4">
-        <v>1.073081168872642</v>
+        <v>1.044618417931604</v>
       </c>
       <c r="F4">
-        <v>1.082175901594509</v>
+        <v>1.052141836602936</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049417907112838</v>
+        <v>1.057193921427984</v>
       </c>
       <c r="J4">
-        <v>1.073495973158782</v>
+        <v>1.05387595163135</v>
       </c>
       <c r="K4">
-        <v>1.053359901665485</v>
+        <v>1.056555431863499</v>
       </c>
       <c r="L4">
-        <v>1.075474839556287</v>
+        <v>1.054206586154194</v>
       </c>
       <c r="M4">
-        <v>1.084548439828315</v>
+        <v>1.061649191235283</v>
       </c>
       <c r="N4">
-        <v>1.075020460572377</v>
+        <v>1.055372576363928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.069520885688234</v>
+        <v>1.037254097245212</v>
       </c>
       <c r="D5">
-        <v>1.051110185739133</v>
+        <v>1.047956169400138</v>
       </c>
       <c r="E5">
-        <v>1.073441109568662</v>
+        <v>1.04627804251077</v>
       </c>
       <c r="F5">
-        <v>1.082560505838401</v>
+        <v>1.053902602993441</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049519514024407</v>
+        <v>1.057775218124071</v>
       </c>
       <c r="J5">
-        <v>1.073804087836347</v>
+        <v>1.055319874667165</v>
       </c>
       <c r="K5">
-        <v>1.053505573461551</v>
+        <v>1.057297336992146</v>
       </c>
       <c r="L5">
-        <v>1.075784145908344</v>
+        <v>1.055636840676738</v>
       </c>
       <c r="M5">
-        <v>1.084882828325896</v>
+        <v>1.063181848367037</v>
       </c>
       <c r="N5">
-        <v>1.075329012808125</v>
+        <v>1.056818549936074</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.069588477521726</v>
+        <v>1.0375745726424</v>
       </c>
       <c r="D6">
-        <v>1.051143274462792</v>
+        <v>1.048117106999511</v>
       </c>
       <c r="E6">
-        <v>1.073501534838695</v>
+        <v>1.046555244788807</v>
       </c>
       <c r="F6">
-        <v>1.082625074135989</v>
+        <v>1.054196716439484</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049536551310471</v>
+        <v>1.057872142133403</v>
       </c>
       <c r="J6">
-        <v>1.07385580054387</v>
+        <v>1.055560921226137</v>
       </c>
       <c r="K6">
-        <v>1.053530015939412</v>
+        <v>1.057421170969886</v>
       </c>
       <c r="L6">
-        <v>1.075836061722517</v>
+        <v>1.055875639616536</v>
       </c>
       <c r="M6">
-        <v>1.084938957655181</v>
+        <v>1.063437773985793</v>
       </c>
       <c r="N6">
-        <v>1.075380798953624</v>
+        <v>1.057059938808808</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.069123617831426</v>
+        <v>1.03536063833602</v>
       </c>
       <c r="D7">
-        <v>1.050915708960947</v>
+        <v>1.047005848027567</v>
       </c>
       <c r="E7">
-        <v>1.073085979115194</v>
+        <v>1.044640692308656</v>
       </c>
       <c r="F7">
-        <v>1.082181041264873</v>
+        <v>1.05216546724675</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049419266328946</v>
+        <v>1.057201734500349</v>
       </c>
       <c r="J7">
-        <v>1.073500091619455</v>
+        <v>1.05389533960616</v>
       </c>
       <c r="K7">
-        <v>1.053361849242751</v>
+        <v>1.056565394837368</v>
       </c>
       <c r="L7">
-        <v>1.075478973737739</v>
+        <v>1.054225788291571</v>
       </c>
       <c r="M7">
-        <v>1.084552909017237</v>
+        <v>1.061669766225974</v>
       </c>
       <c r="N7">
-        <v>1.075024584881736</v>
+        <v>1.055391991871885</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.06717840694397</v>
+        <v>1.025838637451201</v>
       </c>
       <c r="D8">
-        <v>1.049963490192141</v>
+        <v>1.042241482808515</v>
       </c>
       <c r="E8">
-        <v>1.071347492055831</v>
+        <v>1.036418025075179</v>
       </c>
       <c r="F8">
-        <v>1.080323798562789</v>
+        <v>1.043444205467145</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048925701359133</v>
+        <v>1.054297864071917</v>
       </c>
       <c r="J8">
-        <v>1.072010200619582</v>
+        <v>1.04672297302335</v>
       </c>
       <c r="K8">
-        <v>1.052656550154495</v>
+        <v>1.052878123911257</v>
       </c>
       <c r="L8">
-        <v>1.073983756644204</v>
+        <v>1.047126291878864</v>
       </c>
       <c r="M8">
-        <v>1.082936945187658</v>
+        <v>1.054066177471072</v>
       </c>
       <c r="N8">
-        <v>1.07353257806575</v>
+        <v>1.048209439705846</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063742081039119</v>
+        <v>1.007921252494832</v>
       </c>
       <c r="D9">
-        <v>1.048281609433723</v>
+        <v>1.033349315148965</v>
       </c>
       <c r="E9">
-        <v>1.068277957970566</v>
+        <v>1.020997436315614</v>
       </c>
       <c r="F9">
-        <v>1.077046014570188</v>
+        <v>1.027098358984979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048043317572139</v>
+        <v>1.048759860246855</v>
       </c>
       <c r="J9">
-        <v>1.069372881415453</v>
+        <v>1.033197358709546</v>
       </c>
       <c r="K9">
-        <v>1.051404636734577</v>
+        <v>1.045923540824473</v>
       </c>
       <c r="L9">
-        <v>1.071338715378013</v>
+        <v>1.033758788963183</v>
       </c>
       <c r="M9">
-        <v>1.080080262680696</v>
+        <v>1.039766567897884</v>
       </c>
       <c r="N9">
-        <v>1.070891513565848</v>
+        <v>1.034664617468307</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.061445004874942</v>
+        <v>0.9950718880397877</v>
       </c>
       <c r="D10">
-        <v>1.047157641360188</v>
+        <v>1.027037295755374</v>
       </c>
       <c r="E10">
-        <v>1.066227196693296</v>
+        <v>1.009981042007724</v>
       </c>
       <c r="F10">
-        <v>1.074857081327321</v>
+        <v>1.015427376924676</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047446458993285</v>
+        <v>1.04474389120806</v>
       </c>
       <c r="J10">
-        <v>1.067606348065932</v>
+        <v>1.023482404971616</v>
       </c>
       <c r="K10">
-        <v>1.050563842998931</v>
+        <v>1.040934960077064</v>
       </c>
       <c r="L10">
-        <v>1.069568163056478</v>
+        <v>1.024172394146504</v>
       </c>
       <c r="M10">
-        <v>1.078169360550319</v>
+        <v>1.029523562215544</v>
       </c>
       <c r="N10">
-        <v>1.069122471536345</v>
+        <v>1.024935867381748</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.060448787423283</v>
+        <v>0.9892570981849649</v>
       </c>
       <c r="D11">
-        <v>1.046670293008008</v>
+        <v>1.024200162011346</v>
       </c>
       <c r="E11">
-        <v>1.06533808096182</v>
+        <v>1.005007627588161</v>
       </c>
       <c r="F11">
-        <v>1.073908288100458</v>
+        <v>1.010159907293357</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047185951435095</v>
+        <v>1.042917455346007</v>
       </c>
       <c r="J11">
-        <v>1.066839380500712</v>
+        <v>1.019083725764198</v>
       </c>
       <c r="K11">
-        <v>1.050198285571038</v>
+        <v>1.038679687434062</v>
       </c>
       <c r="L11">
-        <v>1.068799725437121</v>
+        <v>1.019835721262116</v>
       </c>
       <c r="M11">
-        <v>1.077340323022421</v>
+        <v>1.024892732820887</v>
       </c>
       <c r="N11">
-        <v>1.068354414789211</v>
+        <v>1.020530941545321</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.060078504504884</v>
+        <v>0.987055947014997</v>
       </c>
       <c r="D12">
-        <v>1.04648916925521</v>
+        <v>1.023129442791467</v>
       </c>
       <c r="E12">
-        <v>1.065007649145361</v>
+        <v>1.003126935471335</v>
       </c>
       <c r="F12">
-        <v>1.073555711847123</v>
+        <v>1.008168232640361</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047088875405748</v>
+        <v>1.042224847989593</v>
       </c>
       <c r="J12">
-        <v>1.066554181326725</v>
+        <v>1.017418407881034</v>
       </c>
       <c r="K12">
-        <v>1.050062276091064</v>
+        <v>1.037826541234363</v>
       </c>
       <c r="L12">
-        <v>1.068514021021234</v>
+        <v>1.018194472533383</v>
       </c>
       <c r="M12">
-        <v>1.077032134717863</v>
+        <v>1.023140597691804</v>
       </c>
       <c r="N12">
-        <v>1.068068810599684</v>
+        <v>1.018863258719747</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.060157942587632</v>
+        <v>0.9875300319970768</v>
       </c>
       <c r="D13">
-        <v>1.046528025501014</v>
+        <v>1.023359901511168</v>
       </c>
       <c r="E13">
-        <v>1.065078535891423</v>
+        <v>1.003531908274142</v>
       </c>
       <c r="F13">
-        <v>1.073631347640571</v>
+        <v>1.008597093936071</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047109712688647</v>
+        <v>1.04237407482992</v>
       </c>
       <c r="J13">
-        <v>1.066615371786378</v>
+        <v>1.0177770929395</v>
       </c>
       <c r="K13">
-        <v>1.050091460801579</v>
+        <v>1.038010262381083</v>
       </c>
       <c r="L13">
-        <v>1.068575318007258</v>
+        <v>1.018547946243422</v>
       </c>
       <c r="M13">
-        <v>1.077098253419983</v>
+        <v>1.023517932912016</v>
       </c>
       <c r="N13">
-        <v>1.068130087956808</v>
+        <v>1.019222453152138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.060418184732199</v>
+        <v>0.9890760147957226</v>
       </c>
       <c r="D14">
-        <v>1.046655323327549</v>
+        <v>1.02411200822697</v>
       </c>
       <c r="E14">
-        <v>1.065310770962327</v>
+        <v>1.004852866735479</v>
       </c>
       <c r="F14">
-        <v>1.073879147179274</v>
+        <v>1.009996009453169</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047177933474128</v>
+        <v>1.042860500130068</v>
       </c>
       <c r="J14">
-        <v>1.06681581227198</v>
+        <v>1.018946727921473</v>
       </c>
       <c r="K14">
-        <v>1.050187047587758</v>
+        <v>1.038609488103406</v>
       </c>
       <c r="L14">
-        <v>1.06877611461138</v>
+        <v>1.01970069128974</v>
       </c>
       <c r="M14">
-        <v>1.077314853150611</v>
+        <v>1.024748570968905</v>
       </c>
       <c r="N14">
-        <v>1.06833081309089</v>
+        <v>1.020393749149944</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060578496020105</v>
+        <v>0.9900229609017713</v>
       </c>
       <c r="D15">
-        <v>1.046733742313478</v>
+        <v>1.024573128796862</v>
       </c>
       <c r="E15">
-        <v>1.065453835331982</v>
+        <v>1.005662244237732</v>
       </c>
       <c r="F15">
-        <v>1.074031804293747</v>
+        <v>1.010853180789464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047219925163137</v>
+        <v>1.043158289376267</v>
       </c>
       <c r="J15">
-        <v>1.066939268586792</v>
+        <v>1.019663127405224</v>
       </c>
       <c r="K15">
-        <v>1.050245911875744</v>
+        <v>1.038976608813607</v>
       </c>
       <c r="L15">
-        <v>1.068899795755457</v>
+        <v>1.020406824515671</v>
       </c>
       <c r="M15">
-        <v>1.077448274507852</v>
+        <v>1.025502476858359</v>
       </c>
       <c r="N15">
-        <v>1.06845444472783</v>
+        <v>1.021111166003135</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.061511086840823</v>
+        <v>0.9954522144944387</v>
       </c>
       <c r="D16">
-        <v>1.047189970990926</v>
+        <v>1.027223292075527</v>
       </c>
       <c r="E16">
-        <v>1.066286180214372</v>
+        <v>1.010306597199095</v>
       </c>
       <c r="F16">
-        <v>1.074920028615073</v>
+        <v>1.015772210536622</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047463704381135</v>
+        <v>1.044863176254136</v>
       </c>
       <c r="J16">
-        <v>1.067657205561199</v>
+        <v>1.023770070193882</v>
       </c>
       <c r="K16">
-        <v>1.050588072351615</v>
+        <v>1.041082535749837</v>
       </c>
       <c r="L16">
-        <v>1.069619123824751</v>
+        <v>1.024456084747302</v>
       </c>
       <c r="M16">
-        <v>1.078224346743577</v>
+        <v>1.029826555705539</v>
       </c>
       <c r="N16">
-        <v>1.069173401255089</v>
+        <v>1.025223941121626</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.062095651064885</v>
+        <v>0.9987882740944164</v>
       </c>
       <c r="D17">
-        <v>1.047475972833434</v>
+        <v>1.028856986927299</v>
       </c>
       <c r="E17">
-        <v>1.066807983407327</v>
+        <v>1.013163587751499</v>
       </c>
       <c r="F17">
-        <v>1.075476923900929</v>
+        <v>1.018798548226374</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047616066788058</v>
+        <v>1.045908485495229</v>
       </c>
       <c r="J17">
-        <v>1.06810699638742</v>
+        <v>1.026293096912058</v>
       </c>
       <c r="K17">
-        <v>1.050802301029344</v>
+        <v>1.042377284365001</v>
       </c>
       <c r="L17">
-        <v>1.070069859732073</v>
+        <v>1.026944682187801</v>
       </c>
       <c r="M17">
-        <v>1.07871072273638</v>
+        <v>1.032484808124134</v>
       </c>
       <c r="N17">
-        <v>1.069623830835875</v>
+        <v>1.027750550827136</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062436466695764</v>
+        <v>1.000710194922065</v>
       </c>
       <c r="D18">
-        <v>1.047642729012844</v>
+        <v>1.029799952787078</v>
       </c>
       <c r="E18">
-        <v>1.067112234477951</v>
+        <v>1.014810619476233</v>
       </c>
       <c r="F18">
-        <v>1.075801658275116</v>
+        <v>1.020543345144282</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04770473819646</v>
+        <v>1.046509831642048</v>
       </c>
       <c r="J18">
-        <v>1.068369154653997</v>
+        <v>1.02774639877121</v>
       </c>
       <c r="K18">
-        <v>1.050927113512715</v>
+        <v>1.043123389222926</v>
       </c>
       <c r="L18">
-        <v>1.070332595303452</v>
+        <v>1.028378507370636</v>
       </c>
       <c r="M18">
-        <v>1.078994263229217</v>
+        <v>1.03401665150373</v>
       </c>
       <c r="N18">
-        <v>1.069886361397261</v>
+        <v>1.029205916541625</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062552650675948</v>
+        <v>1.001361559908412</v>
       </c>
       <c r="D19">
-        <v>1.047699577768235</v>
+        <v>1.030119829453978</v>
       </c>
       <c r="E19">
-        <v>1.06721595810852</v>
+        <v>1.015369003398535</v>
       </c>
       <c r="F19">
-        <v>1.075912368684088</v>
+        <v>1.021134897409478</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047734939156062</v>
+        <v>1.046713485870026</v>
       </c>
       <c r="J19">
-        <v>1.068458510587116</v>
+        <v>1.028238900602684</v>
       </c>
       <c r="K19">
-        <v>1.050969647055017</v>
+        <v>1.043376280467539</v>
       </c>
       <c r="L19">
-        <v>1.070422152495656</v>
+        <v>1.028864468450629</v>
       </c>
       <c r="M19">
-        <v>1.079090917197232</v>
+        <v>1.034535879166362</v>
       </c>
       <c r="N19">
-        <v>1.069975844226054</v>
+        <v>1.02969911778219</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062032948509377</v>
+        <v>0.9984328477564406</v>
       </c>
       <c r="D20">
-        <v>1.047445294156962</v>
+        <v>1.028682743758201</v>
       </c>
       <c r="E20">
-        <v>1.066752010067529</v>
+        <v>1.012859085778762</v>
       </c>
       <c r="F20">
-        <v>1.075417183996031</v>
+        <v>1.018475982707971</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047599740341317</v>
+        <v>1.045797206065445</v>
       </c>
       <c r="J20">
-        <v>1.068058758518476</v>
+        <v>1.026024314446857</v>
       </c>
       <c r="K20">
-        <v>1.050779331172068</v>
+        <v>1.042239319133689</v>
       </c>
       <c r="L20">
-        <v>1.070021517768371</v>
+        <v>1.026679530470447</v>
       </c>
       <c r="M20">
-        <v>1.07865855520748</v>
+        <v>1.032201552118779</v>
       </c>
       <c r="N20">
-        <v>1.069575524463624</v>
+        <v>1.027481386660005</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.060341556688742</v>
+        <v>0.988621932003698</v>
       </c>
       <c r="D21">
-        <v>1.046617840085683</v>
+        <v>1.023891008433463</v>
       </c>
       <c r="E21">
-        <v>1.065242388391666</v>
+        <v>1.004464822231932</v>
       </c>
       <c r="F21">
-        <v>1.073806180644298</v>
+        <v>1.009585058461198</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047157852778714</v>
+        <v>1.042717660689332</v>
       </c>
       <c r="J21">
-        <v>1.066756796238897</v>
+        <v>1.018603190381806</v>
       </c>
       <c r="K21">
-        <v>1.050158905890457</v>
+        <v>1.038433467057683</v>
       </c>
       <c r="L21">
-        <v>1.068716992582259</v>
+        <v>1.019362098039701</v>
       </c>
       <c r="M21">
-        <v>1.077251076789906</v>
+        <v>1.024387086244714</v>
       </c>
       <c r="N21">
-        <v>1.068271713248271</v>
+        <v>1.020049723747567</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059276699392639</v>
+        <v>0.9822124586733527</v>
       </c>
       <c r="D22">
-        <v>1.046097002573034</v>
+        <v>1.020779842626936</v>
       </c>
       <c r="E22">
-        <v>1.064292215882164</v>
+        <v>0.9989924276098116</v>
       </c>
       <c r="F22">
-        <v>1.072792395106592</v>
+        <v>1.00379012968076</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046878214910738</v>
+        <v>1.040698725041761</v>
       </c>
       <c r="J22">
-        <v>1.065936385519882</v>
+        <v>1.013753715880049</v>
       </c>
       <c r="K22">
-        <v>1.049767516298321</v>
+        <v>1.035950588534516</v>
       </c>
       <c r="L22">
-        <v>1.067895206632431</v>
+        <v>1.014583871165975</v>
       </c>
       <c r="M22">
-        <v>1.076364708111923</v>
+        <v>1.019286875431662</v>
       </c>
       <c r="N22">
-        <v>1.067450137451932</v>
+        <v>1.015193362435775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.059841336855347</v>
+        <v>0.9856344046008767</v>
       </c>
       <c r="D23">
-        <v>1.046373164217868</v>
+        <v>1.022438920696579</v>
       </c>
       <c r="E23">
-        <v>1.064796018380807</v>
+        <v>1.001912927898547</v>
       </c>
       <c r="F23">
-        <v>1.073329907911199</v>
+        <v>1.006882644268537</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047026628009072</v>
+        <v>1.041777224253724</v>
       </c>
       <c r="J23">
-        <v>1.066371474764488</v>
+        <v>1.016342868822796</v>
       </c>
       <c r="K23">
-        <v>1.049975123427337</v>
+        <v>1.037275757379831</v>
       </c>
       <c r="L23">
-        <v>1.068331002456592</v>
+        <v>1.01713464903228</v>
       </c>
       <c r="M23">
-        <v>1.0768347265284</v>
+        <v>1.022009295015909</v>
       </c>
       <c r="N23">
-        <v>1.067885844573171</v>
+        <v>1.017786192272681</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062061281561453</v>
+        <v>0.998593523355488</v>
       </c>
       <c r="D24">
-        <v>1.047459156727965</v>
+        <v>1.028761507373089</v>
       </c>
       <c r="E24">
-        <v>1.066777302344193</v>
+        <v>1.012996736864792</v>
       </c>
       <c r="F24">
-        <v>1.075444178175992</v>
+        <v>1.018621799048497</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047607118174899</v>
+        <v>1.045847514223058</v>
       </c>
       <c r="J24">
-        <v>1.068080555744425</v>
+        <v>1.026145822147291</v>
       </c>
       <c r="K24">
-        <v>1.050789710705429</v>
+        <v>1.042301687721062</v>
       </c>
       <c r="L24">
-        <v>1.07004336194976</v>
+        <v>1.026799395727858</v>
       </c>
       <c r="M24">
-        <v>1.07868212794565</v>
+        <v>1.032329600814726</v>
       </c>
       <c r="N24">
-        <v>1.069597352644135</v>
+        <v>1.027603066915311</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.064631515655299</v>
+        <v>1.012701597918901</v>
       </c>
       <c r="D25">
-        <v>1.048716889950914</v>
+        <v>1.03571184183807</v>
       </c>
       <c r="E25">
-        <v>1.069072260051892</v>
+        <v>1.025104962055547</v>
       </c>
       <c r="F25">
-        <v>1.077894036244381</v>
+        <v>1.031451230232613</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048272944479337</v>
+        <v>1.05024539901863</v>
       </c>
       <c r="J25">
-        <v>1.070056136670988</v>
+        <v>1.036808935334824</v>
       </c>
       <c r="K25">
-        <v>1.051729370869115</v>
+        <v>1.047779964668944</v>
       </c>
       <c r="L25">
-        <v>1.072023768762897</v>
+        <v>1.037325666645508</v>
       </c>
       <c r="M25">
-        <v>1.080819898071733</v>
+        <v>1.043580165186828</v>
       </c>
       <c r="N25">
-        <v>1.071575739122215</v>
+        <v>1.038281322946647</v>
       </c>
     </row>
   </sheetData>
